--- a/medicine/Enfance/Les_Enfants_de_la_chance/Les_Enfants_de_la_chance.xlsx
+++ b/medicine/Enfance/Les_Enfants_de_la_chance/Les_Enfants_de_la_chance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Enfants de la chance est une comédie dramatique française réalisée par Malik Chibane, sortie en 2016, d'après les mémoires de Maurice Grosman, N'habite plus à l'adresse indiquée[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Enfants de la chance est une comédie dramatique française réalisée par Malik Chibane, sortie en 2016, d'après les mémoires de Maurice Grosman, N'habite plus à l'adresse indiquée.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1942, Maurice Gutman, un enfant juif de 12 ans, se trouve séparé de sa famille à la suite d'un accident. Durant son séjour au service de pédiatrie de l'hôpital de Garches, sa famille est emmenée au camp de Drancy, puis déportée vers le camp d'Auschwitz. Il passe deux ans à l'hôpital, échappant à l'inquisition policière grâce au médecin-chef de l'établissement ; des liens d'amitié s'établissent dans le groupe d'enfants où il se trouve, dont certains guérissent et d'autres meurent. À sa sortie, après la Libération, il retrouve sa tante et comprend qu'elle est, de sa famille, la seule survivante du massacre nazi.
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : Les Enfants de la chance
 Titre à l'international : Di Ness (Le Miraculé)
@@ -590,7 +606,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Matteo Perez : Maurice Gutman
 Philippe Torreton : docteur Daviel
